--- a/sample.xlsx
+++ b/sample.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A1:B1 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,7 +716,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,7 +724,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -734,34 +734,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,282 +774,282 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
